--- a/テストExcelファイル.xlsx
+++ b/テストExcelファイル.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\【保管庫】智哉\ドキュメント\#inbox\20210508_テストGit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B797E2AA-3490-410E-ABFA-1B6AE876966B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5AE4C7C-D95A-495D-AC83-29297BDD51CC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,9 +25,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>テストExcelファイル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>工程1…文字追記</t>
+    <rPh sb="0" eb="2">
+      <t>コウテイ</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>モジツイキ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -353,10 +363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T16" sqref="T16"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -366,6 +376,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/テストExcelファイル.xlsx
+++ b/テストExcelファイル.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\【保管庫】智哉\ドキュメント\#inbox\20210508_テストGit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5AE4C7C-D95A-495D-AC83-29297BDD51CC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{606A235C-226F-4C8F-8F7B-C6753F9A150B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>テストExcelファイル</t>
     <phoneticPr fontId="1"/>
@@ -37,6 +38,26 @@
     </rPh>
     <rPh sb="4" eb="8">
       <t>モジツイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>工程2…文字追記</t>
+    <rPh sb="0" eb="2">
+      <t>コウテイ</t>
+    </rPh>
+    <rPh sb="3" eb="8">
+      <t>テンモジツイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>工程3…シート追加</t>
+    <rPh sb="0" eb="2">
+      <t>コウテイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -363,10 +384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -381,6 +402,32 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE0FEDEF-4B1E-4CAE-ADFA-2E7BB3DD67A6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/テストExcelファイル.xlsx
+++ b/テストExcelファイル.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\【保管庫】智哉\ドキュメント\#inbox\20210508_テストGit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B797E2AA-3490-410E-ABFA-1B6AE876966B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D1357F-D73E-4977-A5DF-E9627DB5291D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,9 +25,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>テストExcelファイル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戻ってから追記1回目</t>
+    <rPh sb="0" eb="1">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ツイキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カイメ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -353,17 +366,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T16" sqref="T16"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="B2" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/テストExcelファイル.xlsx
+++ b/テストExcelファイル.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\【保管庫】智哉\ドキュメント\#inbox\20210508_テストGit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D1357F-D73E-4977-A5DF-E9627DB5291D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F8A5CA-C9FB-4E78-9EF6-F037D7D4EFF9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,13 +25,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>テストExcelファイル</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>戻ってから追記1回目</t>
+    <rPh sb="0" eb="1">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ツイキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カイメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戻ってから追記2回目</t>
     <rPh sb="0" eb="1">
       <t>モド</t>
     </rPh>
@@ -366,10 +379,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -384,6 +397,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:2">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/テストExcelファイル.xlsx
+++ b/テストExcelファイル.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\【保管庫】智哉\ドキュメント\#inbox\20210508_テストGit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F8A5CA-C9FB-4E78-9EF6-F037D7D4EFF9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D981514C-D465-44D4-9007-B245907A3F22}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>テストExcelファイル</t>
     <phoneticPr fontId="1"/>
@@ -45,6 +45,19 @@
   </si>
   <si>
     <t>戻ってから追記2回目</t>
+    <rPh sb="0" eb="1">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ツイキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カイメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戻ってから追記3回目</t>
     <rPh sb="0" eb="1">
       <t>モド</t>
     </rPh>
@@ -379,10 +392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -402,6 +415,11 @@
         <v>2</v>
       </c>
     </row>
+    <row r="4" spans="1:2">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/テストExcelファイル.xlsx
+++ b/テストExcelファイル.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\【保管庫】智哉\ドキュメント\#inbox\20210508_テストGit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D981514C-D465-44D4-9007-B245907A3F22}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E331A0E9-C026-4114-B405-83F5B9BE8CA2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>テストExcelファイル</t>
     <phoneticPr fontId="1"/>
@@ -66,6 +67,13 @@
     </rPh>
     <rPh sb="8" eb="10">
       <t>カイメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シート追加</t>
+    <rPh sb="3" eb="5">
+      <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -394,7 +402,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -424,4 +432,23 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EE9B91A-3DC9-4C71-8760-3AE62E124F5D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/テストExcelファイル.xlsx
+++ b/テストExcelファイル.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\【保管庫】智哉\ドキュメント\#inbox\20210508_テストGit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{606A235C-226F-4C8F-8F7B-C6753F9A150B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{119991A3-E8B2-49EA-B8B4-229C8AB057FE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>テストExcelファイル</t>
     <phoneticPr fontId="1"/>
@@ -58,6 +58,19 @@
     </rPh>
     <rPh sb="7" eb="9">
       <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戻り2回目に追記</t>
+    <rPh sb="0" eb="1">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カイメ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ツイキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -384,6 +397,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE0FEDEF-4B1E-4CAE-ADFA-2E7BB3DD67A6}">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -394,38 +443,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE0FEDEF-4B1E-4CAE-ADFA-2E7BB3DD67A6}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/テストExcelファイル.xlsx
+++ b/テストExcelファイル.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\【保管庫】智哉\ドキュメント\#inbox\20210508_テストGit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{119991A3-E8B2-49EA-B8B4-229C8AB057FE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{606A235C-226F-4C8F-8F7B-C6753F9A150B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>テストExcelファイル</t>
     <phoneticPr fontId="1"/>
@@ -58,19 +58,6 @@
     </rPh>
     <rPh sb="7" eb="9">
       <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>戻り2回目に追記</t>
-    <rPh sb="0" eb="1">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カイメ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ツイキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -397,10 +384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -420,11 +407,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -433,10 +415,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE0FEDEF-4B1E-4CAE-ADFA-2E7BB3DD67A6}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -446,11 +428,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/テストExcelファイル.xlsx
+++ b/テストExcelファイル.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\【保管庫】智哉\ドキュメント\#inbox\20210508_テストGit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D1357F-D73E-4977-A5DF-E9627DB5291D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B01E33DB-3857-493F-9BFF-82EC95C4771C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,13 +25,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>テストExcelファイル</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>戻ってから追記1回目</t>
+    <rPh sb="0" eb="1">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ツイキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カイメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戻ってから追記2回目</t>
     <rPh sb="0" eb="1">
       <t>モド</t>
     </rPh>
@@ -366,10 +379,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -384,6 +397,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:2">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
